--- a/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_session_analysis.xlsx
@@ -594,45 +594,45 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>B1A</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>CLINICAL</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>CLINICAL</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>23/11/2025</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R17" s="5" t="inlineStr">
         <is>
@@ -3311,45 +3311,45 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>B1C</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>CLINICAL</t>
-        </is>
-      </c>
-      <c r="D57" s="4" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>CLINICAL</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>23/11/2025</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G57" s="4" t="inlineStr"/>
-      <c r="H57" s="4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="I57" s="4" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>Not Recorded</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_session_analysis.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_surgery_1_B1_session_analysis.xlsx
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N19" s="5" t="n">
         <v>27</v>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N20" s="5" t="n">
         <v>27</v>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N21" s="5" t="n">
         <v>27</v>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N22" s="5" t="n">
         <v>27</v>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N23" s="5" t="n">
         <v>27</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="M24" s="5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N24" s="5" t="n">
         <v>27</v>
@@ -5833,7 +5833,7 @@
       <c r="G110" s="2" t="inlineStr"/>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
@@ -5876,7 +5876,7 @@
       <c r="G111" s="2" t="inlineStr"/>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
@@ -5919,7 +5919,7 @@
       <c r="G112" s="4" t="inlineStr"/>
       <c r="H112" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I112" s="4" t="inlineStr">
@@ -5962,7 +5962,7 @@
       <c r="G113" s="4" t="inlineStr"/>
       <c r="H113" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I113" s="4" t="inlineStr">
@@ -6005,7 +6005,7 @@
       <c r="G114" s="4" t="inlineStr"/>
       <c r="H114" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I114" s="4" t="inlineStr">
@@ -6048,7 +6048,7 @@
       <c r="G115" s="4" t="inlineStr"/>
       <c r="H115" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I115" s="4" t="inlineStr">
@@ -6091,7 +6091,7 @@
       <c r="G116" s="4" t="inlineStr"/>
       <c r="H116" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I116" s="4" t="inlineStr">
@@ -6134,7 +6134,7 @@
       <c r="G117" s="4" t="inlineStr"/>
       <c r="H117" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I117" s="4" t="inlineStr">
@@ -6177,7 +6177,7 @@
       <c r="G118" s="4" t="inlineStr"/>
       <c r="H118" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I118" s="4" t="inlineStr">
@@ -6220,7 +6220,7 @@
       <c r="G119" s="4" t="inlineStr"/>
       <c r="H119" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I119" s="4" t="inlineStr">
@@ -6263,7 +6263,7 @@
       <c r="G120" s="4" t="inlineStr"/>
       <c r="H120" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I120" s="4" t="inlineStr">
@@ -6306,7 +6306,7 @@
       <c r="G121" s="4" t="inlineStr"/>
       <c r="H121" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I121" s="4" t="inlineStr">
@@ -6349,7 +6349,7 @@
       <c r="G122" s="4" t="inlineStr"/>
       <c r="H122" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I122" s="4" t="inlineStr">
@@ -6392,7 +6392,7 @@
       <c r="G123" s="4" t="inlineStr"/>
       <c r="H123" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I123" s="4" t="inlineStr">
@@ -6435,7 +6435,7 @@
       <c r="G124" s="4" t="inlineStr"/>
       <c r="H124" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I124" s="4" t="inlineStr">
@@ -6478,7 +6478,7 @@
       <c r="G125" s="4" t="inlineStr"/>
       <c r="H125" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I125" s="4" t="inlineStr">
@@ -6521,7 +6521,7 @@
       <c r="G126" s="4" t="inlineStr"/>
       <c r="H126" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I126" s="4" t="inlineStr">
@@ -6564,7 +6564,7 @@
       <c r="G127" s="4" t="inlineStr"/>
       <c r="H127" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I127" s="4" t="inlineStr">
@@ -6607,7 +6607,7 @@
       <c r="G128" s="4" t="inlineStr"/>
       <c r="H128" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I128" s="4" t="inlineStr">
@@ -6650,7 +6650,7 @@
       <c r="G129" s="4" t="inlineStr"/>
       <c r="H129" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I129" s="4" t="inlineStr">
@@ -6693,7 +6693,7 @@
       <c r="G130" s="4" t="inlineStr"/>
       <c r="H130" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I130" s="4" t="inlineStr">
@@ -6736,7 +6736,7 @@
       <c r="G131" s="4" t="inlineStr"/>
       <c r="H131" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I131" s="4" t="inlineStr">
@@ -6779,7 +6779,7 @@
       <c r="G132" s="4" t="inlineStr"/>
       <c r="H132" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I132" s="4" t="inlineStr">
@@ -6822,7 +6822,7 @@
       <c r="G133" s="4" t="inlineStr"/>
       <c r="H133" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I133" s="4" t="inlineStr">
@@ -6865,7 +6865,7 @@
       <c r="G134" s="4" t="inlineStr"/>
       <c r="H134" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I134" s="4" t="inlineStr">
@@ -6908,7 +6908,7 @@
       <c r="G135" s="4" t="inlineStr"/>
       <c r="H135" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I135" s="4" t="inlineStr">
@@ -6951,7 +6951,7 @@
       <c r="G136" s="4" t="inlineStr"/>
       <c r="H136" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I136" s="4" t="inlineStr">
@@ -6994,7 +6994,7 @@
       <c r="G137" s="2" t="inlineStr"/>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I137" s="2" t="inlineStr">
@@ -7037,7 +7037,7 @@
       <c r="G138" s="2" t="inlineStr"/>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
@@ -7080,7 +7080,7 @@
       <c r="G139" s="4" t="inlineStr"/>
       <c r="H139" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I139" s="4" t="inlineStr">
@@ -7123,7 +7123,7 @@
       <c r="G140" s="4" t="inlineStr"/>
       <c r="H140" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I140" s="4" t="inlineStr">
@@ -7166,7 +7166,7 @@
       <c r="G141" s="4" t="inlineStr"/>
       <c r="H141" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I141" s="4" t="inlineStr">
@@ -7209,7 +7209,7 @@
       <c r="G142" s="4" t="inlineStr"/>
       <c r="H142" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I142" s="4" t="inlineStr">
@@ -7252,7 +7252,7 @@
       <c r="G143" s="4" t="inlineStr"/>
       <c r="H143" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I143" s="4" t="inlineStr">
@@ -7295,7 +7295,7 @@
       <c r="G144" s="4" t="inlineStr"/>
       <c r="H144" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I144" s="4" t="inlineStr">
@@ -7338,7 +7338,7 @@
       <c r="G145" s="4" t="inlineStr"/>
       <c r="H145" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I145" s="4" t="inlineStr">
@@ -7381,7 +7381,7 @@
       <c r="G146" s="4" t="inlineStr"/>
       <c r="H146" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I146" s="4" t="inlineStr">
@@ -7424,7 +7424,7 @@
       <c r="G147" s="4" t="inlineStr"/>
       <c r="H147" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I147" s="4" t="inlineStr">
@@ -7467,7 +7467,7 @@
       <c r="G148" s="4" t="inlineStr"/>
       <c r="H148" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I148" s="4" t="inlineStr">
@@ -7510,7 +7510,7 @@
       <c r="G149" s="4" t="inlineStr"/>
       <c r="H149" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I149" s="4" t="inlineStr">
@@ -7553,7 +7553,7 @@
       <c r="G150" s="4" t="inlineStr"/>
       <c r="H150" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I150" s="4" t="inlineStr">
@@ -7596,7 +7596,7 @@
       <c r="G151" s="4" t="inlineStr"/>
       <c r="H151" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I151" s="4" t="inlineStr">
@@ -7639,7 +7639,7 @@
       <c r="G152" s="4" t="inlineStr"/>
       <c r="H152" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I152" s="4" t="inlineStr">
@@ -7682,7 +7682,7 @@
       <c r="G153" s="4" t="inlineStr"/>
       <c r="H153" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I153" s="4" t="inlineStr">
@@ -7725,7 +7725,7 @@
       <c r="G154" s="4" t="inlineStr"/>
       <c r="H154" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I154" s="4" t="inlineStr">
@@ -7768,7 +7768,7 @@
       <c r="G155" s="4" t="inlineStr"/>
       <c r="H155" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I155" s="4" t="inlineStr">
@@ -7811,7 +7811,7 @@
       <c r="G156" s="4" t="inlineStr"/>
       <c r="H156" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I156" s="4" t="inlineStr">
@@ -7854,7 +7854,7 @@
       <c r="G157" s="4" t="inlineStr"/>
       <c r="H157" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I157" s="4" t="inlineStr">
@@ -7897,7 +7897,7 @@
       <c r="G158" s="4" t="inlineStr"/>
       <c r="H158" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I158" s="4" t="inlineStr">
@@ -7940,7 +7940,7 @@
       <c r="G159" s="4" t="inlineStr"/>
       <c r="H159" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I159" s="4" t="inlineStr">
@@ -7983,7 +7983,7 @@
       <c r="G160" s="4" t="inlineStr"/>
       <c r="H160" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I160" s="4" t="inlineStr">
@@ -8026,7 +8026,7 @@
       <c r="G161" s="4" t="inlineStr"/>
       <c r="H161" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I161" s="4" t="inlineStr">
@@ -8069,7 +8069,7 @@
       <c r="G162" s="4" t="inlineStr"/>
       <c r="H162" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I162" s="4" t="inlineStr">
@@ -8112,7 +8112,7 @@
       <c r="G163" s="4" t="inlineStr"/>
       <c r="H163" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I163" s="4" t="inlineStr">
@@ -8155,7 +8155,7 @@
       <c r="G164" s="4" t="inlineStr"/>
       <c r="H164" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I164" s="4" t="inlineStr">
@@ -8198,7 +8198,7 @@
       <c r="G165" s="4" t="inlineStr"/>
       <c r="H165" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I165" s="4" t="inlineStr">
@@ -8241,7 +8241,7 @@
       <c r="G166" s="4" t="inlineStr"/>
       <c r="H166" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I166" s="4" t="inlineStr">
@@ -8284,7 +8284,7 @@
       <c r="G167" s="4" t="inlineStr"/>
       <c r="H167" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I167" s="4" t="inlineStr">
@@ -8327,7 +8327,7 @@
       <c r="G168" s="4" t="inlineStr"/>
       <c r="H168" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I168" s="4" t="inlineStr">
@@ -8370,7 +8370,7 @@
       <c r="G169" s="4" t="inlineStr"/>
       <c r="H169" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I169" s="4" t="inlineStr">
@@ -8413,7 +8413,7 @@
       <c r="G170" s="4" t="inlineStr"/>
       <c r="H170" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I170" s="4" t="inlineStr">
@@ -8456,7 +8456,7 @@
       <c r="G171" s="4" t="inlineStr"/>
       <c r="H171" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I171" s="4" t="inlineStr">
@@ -8499,7 +8499,7 @@
       <c r="G172" s="4" t="inlineStr"/>
       <c r="H172" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I172" s="4" t="inlineStr">
@@ -8542,7 +8542,7 @@
       <c r="G173" s="4" t="inlineStr"/>
       <c r="H173" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I173" s="4" t="inlineStr">
@@ -8585,7 +8585,7 @@
       <c r="G174" s="4" t="inlineStr"/>
       <c r="H174" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I174" s="4" t="inlineStr">
@@ -8628,7 +8628,7 @@
       <c r="G175" s="4" t="inlineStr"/>
       <c r="H175" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I175" s="4" t="inlineStr">
@@ -8671,7 +8671,7 @@
       <c r="G176" s="4" t="inlineStr"/>
       <c r="H176" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I176" s="4" t="inlineStr">
@@ -8714,7 +8714,7 @@
       <c r="G177" s="4" t="inlineStr"/>
       <c r="H177" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I177" s="4" t="inlineStr">
@@ -8757,7 +8757,7 @@
       <c r="G178" s="4" t="inlineStr"/>
       <c r="H178" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I178" s="4" t="inlineStr">
@@ -8800,7 +8800,7 @@
       <c r="G179" s="4" t="inlineStr"/>
       <c r="H179" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I179" s="4" t="inlineStr">
@@ -8843,7 +8843,7 @@
       <c r="G180" s="4" t="inlineStr"/>
       <c r="H180" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I180" s="4" t="inlineStr">
@@ -8886,7 +8886,7 @@
       <c r="G181" s="4" t="inlineStr"/>
       <c r="H181" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I181" s="4" t="inlineStr">
@@ -8929,7 +8929,7 @@
       <c r="G182" s="4" t="inlineStr"/>
       <c r="H182" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I182" s="4" t="inlineStr">
@@ -8972,7 +8972,7 @@
       <c r="G183" s="4" t="inlineStr"/>
       <c r="H183" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I183" s="4" t="inlineStr">
@@ -9015,7 +9015,7 @@
       <c r="G184" s="4" t="inlineStr"/>
       <c r="H184" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I184" s="4" t="inlineStr">
@@ -9058,7 +9058,7 @@
       <c r="G185" s="4" t="inlineStr"/>
       <c r="H185" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I185" s="4" t="inlineStr">
@@ -9101,7 +9101,7 @@
       <c r="G186" s="4" t="inlineStr"/>
       <c r="H186" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I186" s="4" t="inlineStr">
@@ -9144,7 +9144,7 @@
       <c r="G187" s="4" t="inlineStr"/>
       <c r="H187" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I187" s="4" t="inlineStr">
@@ -9187,7 +9187,7 @@
       <c r="G188" s="4" t="inlineStr"/>
       <c r="H188" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I188" s="4" t="inlineStr">
@@ -9230,7 +9230,7 @@
       <c r="G189" s="4" t="inlineStr"/>
       <c r="H189" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I189" s="4" t="inlineStr">
@@ -9273,7 +9273,7 @@
       <c r="G190" s="4" t="inlineStr"/>
       <c r="H190" s="4" t="inlineStr">
         <is>
-          <t>0/25</t>
+          <t>0/23</t>
         </is>
       </c>
       <c r="I190" s="4" t="inlineStr">
@@ -9316,7 +9316,7 @@
       <c r="G191" s="4" t="inlineStr"/>
       <c r="H191" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I191" s="4" t="inlineStr">
@@ -9359,7 +9359,7 @@
       <c r="G192" s="4" t="inlineStr"/>
       <c r="H192" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I192" s="4" t="inlineStr">
@@ -9402,7 +9402,7 @@
       <c r="G193" s="4" t="inlineStr"/>
       <c r="H193" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I193" s="4" t="inlineStr">
@@ -9445,7 +9445,7 @@
       <c r="G194" s="4" t="inlineStr"/>
       <c r="H194" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I194" s="4" t="inlineStr">
@@ -9488,7 +9488,7 @@
       <c r="G195" s="4" t="inlineStr"/>
       <c r="H195" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I195" s="4" t="inlineStr">
@@ -9531,7 +9531,7 @@
       <c r="G196" s="4" t="inlineStr"/>
       <c r="H196" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I196" s="4" t="inlineStr">
@@ -9574,7 +9574,7 @@
       <c r="G197" s="4" t="inlineStr"/>
       <c r="H197" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I197" s="4" t="inlineStr">
@@ -9617,7 +9617,7 @@
       <c r="G198" s="4" t="inlineStr"/>
       <c r="H198" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I198" s="4" t="inlineStr">
@@ -9660,7 +9660,7 @@
       <c r="G199" s="4" t="inlineStr"/>
       <c r="H199" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I199" s="4" t="inlineStr">
@@ -9703,7 +9703,7 @@
       <c r="G200" s="4" t="inlineStr"/>
       <c r="H200" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I200" s="4" t="inlineStr">
@@ -9746,7 +9746,7 @@
       <c r="G201" s="4" t="inlineStr"/>
       <c r="H201" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I201" s="4" t="inlineStr">
@@ -9789,7 +9789,7 @@
       <c r="G202" s="4" t="inlineStr"/>
       <c r="H202" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I202" s="4" t="inlineStr">
@@ -9832,7 +9832,7 @@
       <c r="G203" s="4" t="inlineStr"/>
       <c r="H203" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I203" s="4" t="inlineStr">
@@ -9875,7 +9875,7 @@
       <c r="G204" s="4" t="inlineStr"/>
       <c r="H204" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I204" s="4" t="inlineStr">
@@ -9918,7 +9918,7 @@
       <c r="G205" s="4" t="inlineStr"/>
       <c r="H205" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I205" s="4" t="inlineStr">
@@ -9961,7 +9961,7 @@
       <c r="G206" s="4" t="inlineStr"/>
       <c r="H206" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I206" s="4" t="inlineStr">
@@ -10004,7 +10004,7 @@
       <c r="G207" s="4" t="inlineStr"/>
       <c r="H207" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I207" s="4" t="inlineStr">
@@ -10047,7 +10047,7 @@
       <c r="G208" s="4" t="inlineStr"/>
       <c r="H208" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I208" s="4" t="inlineStr">
@@ -10090,7 +10090,7 @@
       <c r="G209" s="4" t="inlineStr"/>
       <c r="H209" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I209" s="4" t="inlineStr">
@@ -10133,7 +10133,7 @@
       <c r="G210" s="4" t="inlineStr"/>
       <c r="H210" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I210" s="4" t="inlineStr">
@@ -10176,7 +10176,7 @@
       <c r="G211" s="4" t="inlineStr"/>
       <c r="H211" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I211" s="4" t="inlineStr">
@@ -10219,7 +10219,7 @@
       <c r="G212" s="4" t="inlineStr"/>
       <c r="H212" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I212" s="4" t="inlineStr">
@@ -10262,7 +10262,7 @@
       <c r="G213" s="4" t="inlineStr"/>
       <c r="H213" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I213" s="4" t="inlineStr">
@@ -10305,7 +10305,7 @@
       <c r="G214" s="4" t="inlineStr"/>
       <c r="H214" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I214" s="4" t="inlineStr">
@@ -10348,7 +10348,7 @@
       <c r="G215" s="4" t="inlineStr"/>
       <c r="H215" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I215" s="4" t="inlineStr">
@@ -10391,7 +10391,7 @@
       <c r="G216" s="4" t="inlineStr"/>
       <c r="H216" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I216" s="4" t="inlineStr">
@@ -10434,7 +10434,7 @@
       <c r="G217" s="4" t="inlineStr"/>
       <c r="H217" s="4" t="inlineStr">
         <is>
-          <t>0/28</t>
+          <t>0/30</t>
         </is>
       </c>
       <c r="I217" s="4" t="inlineStr">
@@ -10477,7 +10477,7 @@
       <c r="G218" s="4" t="inlineStr"/>
       <c r="H218" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I218" s="4" t="inlineStr">
@@ -10520,7 +10520,7 @@
       <c r="G219" s="4" t="inlineStr"/>
       <c r="H219" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I219" s="4" t="inlineStr">
@@ -10563,7 +10563,7 @@
       <c r="G220" s="4" t="inlineStr"/>
       <c r="H220" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I220" s="4" t="inlineStr">
@@ -10606,7 +10606,7 @@
       <c r="G221" s="4" t="inlineStr"/>
       <c r="H221" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I221" s="4" t="inlineStr">
@@ -10649,7 +10649,7 @@
       <c r="G222" s="4" t="inlineStr"/>
       <c r="H222" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I222" s="4" t="inlineStr">
@@ -10692,7 +10692,7 @@
       <c r="G223" s="4" t="inlineStr"/>
       <c r="H223" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I223" s="4" t="inlineStr">
@@ -10735,7 +10735,7 @@
       <c r="G224" s="4" t="inlineStr"/>
       <c r="H224" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I224" s="4" t="inlineStr">
@@ -10778,7 +10778,7 @@
       <c r="G225" s="4" t="inlineStr"/>
       <c r="H225" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I225" s="4" t="inlineStr">
@@ -10821,7 +10821,7 @@
       <c r="G226" s="4" t="inlineStr"/>
       <c r="H226" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I226" s="4" t="inlineStr">
@@ -10864,7 +10864,7 @@
       <c r="G227" s="4" t="inlineStr"/>
       <c r="H227" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I227" s="4" t="inlineStr">
@@ -10907,7 +10907,7 @@
       <c r="G228" s="4" t="inlineStr"/>
       <c r="H228" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I228" s="4" t="inlineStr">
@@ -10950,7 +10950,7 @@
       <c r="G229" s="4" t="inlineStr"/>
       <c r="H229" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I229" s="4" t="inlineStr">
@@ -10993,7 +10993,7 @@
       <c r="G230" s="4" t="inlineStr"/>
       <c r="H230" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I230" s="4" t="inlineStr">
@@ -11036,7 +11036,7 @@
       <c r="G231" s="4" t="inlineStr"/>
       <c r="H231" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I231" s="4" t="inlineStr">
@@ -11079,7 +11079,7 @@
       <c r="G232" s="4" t="inlineStr"/>
       <c r="H232" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I232" s="4" t="inlineStr">
@@ -11122,7 +11122,7 @@
       <c r="G233" s="4" t="inlineStr"/>
       <c r="H233" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I233" s="4" t="inlineStr">
@@ -11165,7 +11165,7 @@
       <c r="G234" s="4" t="inlineStr"/>
       <c r="H234" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I234" s="4" t="inlineStr">
@@ -11208,7 +11208,7 @@
       <c r="G235" s="4" t="inlineStr"/>
       <c r="H235" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I235" s="4" t="inlineStr">
@@ -11251,7 +11251,7 @@
       <c r="G236" s="4" t="inlineStr"/>
       <c r="H236" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I236" s="4" t="inlineStr">
@@ -11294,7 +11294,7 @@
       <c r="G237" s="4" t="inlineStr"/>
       <c r="H237" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I237" s="4" t="inlineStr">
@@ -11337,7 +11337,7 @@
       <c r="G238" s="4" t="inlineStr"/>
       <c r="H238" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I238" s="4" t="inlineStr">
@@ -11380,7 +11380,7 @@
       <c r="G239" s="4" t="inlineStr"/>
       <c r="H239" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I239" s="4" t="inlineStr">
@@ -11423,7 +11423,7 @@
       <c r="G240" s="4" t="inlineStr"/>
       <c r="H240" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I240" s="4" t="inlineStr">
@@ -11466,7 +11466,7 @@
       <c r="G241" s="4" t="inlineStr"/>
       <c r="H241" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I241" s="4" t="inlineStr">
@@ -11509,7 +11509,7 @@
       <c r="G242" s="4" t="inlineStr"/>
       <c r="H242" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I242" s="4" t="inlineStr">
@@ -11552,7 +11552,7 @@
       <c r="G243" s="4" t="inlineStr"/>
       <c r="H243" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I243" s="4" t="inlineStr">
@@ -11595,7 +11595,7 @@
       <c r="G244" s="4" t="inlineStr"/>
       <c r="H244" s="4" t="inlineStr">
         <is>
-          <t>0/26</t>
+          <t>0/25</t>
         </is>
       </c>
       <c r="I244" s="4" t="inlineStr">
@@ -11638,7 +11638,7 @@
       <c r="G245" s="4" t="inlineStr"/>
       <c r="H245" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I245" s="4" t="inlineStr">
@@ -11681,7 +11681,7 @@
       <c r="G246" s="4" t="inlineStr"/>
       <c r="H246" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I246" s="4" t="inlineStr">
@@ -11724,7 +11724,7 @@
       <c r="G247" s="4" t="inlineStr"/>
       <c r="H247" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I247" s="4" t="inlineStr">
@@ -11767,7 +11767,7 @@
       <c r="G248" s="4" t="inlineStr"/>
       <c r="H248" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I248" s="4" t="inlineStr">
@@ -11810,7 +11810,7 @@
       <c r="G249" s="4" t="inlineStr"/>
       <c r="H249" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I249" s="4" t="inlineStr">
@@ -11853,7 +11853,7 @@
       <c r="G250" s="4" t="inlineStr"/>
       <c r="H250" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I250" s="4" t="inlineStr">
@@ -11896,7 +11896,7 @@
       <c r="G251" s="4" t="inlineStr"/>
       <c r="H251" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I251" s="4" t="inlineStr">
@@ -11939,7 +11939,7 @@
       <c r="G252" s="4" t="inlineStr"/>
       <c r="H252" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I252" s="4" t="inlineStr">
@@ -11982,7 +11982,7 @@
       <c r="G253" s="4" t="inlineStr"/>
       <c r="H253" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I253" s="4" t="inlineStr">
@@ -12025,7 +12025,7 @@
       <c r="G254" s="4" t="inlineStr"/>
       <c r="H254" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I254" s="4" t="inlineStr">
@@ -12068,7 +12068,7 @@
       <c r="G255" s="4" t="inlineStr"/>
       <c r="H255" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I255" s="4" t="inlineStr">
@@ -12111,7 +12111,7 @@
       <c r="G256" s="4" t="inlineStr"/>
       <c r="H256" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I256" s="4" t="inlineStr">
@@ -12154,7 +12154,7 @@
       <c r="G257" s="4" t="inlineStr"/>
       <c r="H257" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I257" s="4" t="inlineStr">
@@ -12197,7 +12197,7 @@
       <c r="G258" s="4" t="inlineStr"/>
       <c r="H258" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I258" s="4" t="inlineStr">
@@ -12240,7 +12240,7 @@
       <c r="G259" s="4" t="inlineStr"/>
       <c r="H259" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I259" s="4" t="inlineStr">
@@ -12283,7 +12283,7 @@
       <c r="G260" s="4" t="inlineStr"/>
       <c r="H260" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I260" s="4" t="inlineStr">
@@ -12326,7 +12326,7 @@
       <c r="G261" s="4" t="inlineStr"/>
       <c r="H261" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I261" s="4" t="inlineStr">
@@ -12369,7 +12369,7 @@
       <c r="G262" s="4" t="inlineStr"/>
       <c r="H262" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I262" s="4" t="inlineStr">
@@ -12412,7 +12412,7 @@
       <c r="G263" s="4" t="inlineStr"/>
       <c r="H263" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I263" s="4" t="inlineStr">
@@ -12455,7 +12455,7 @@
       <c r="G264" s="4" t="inlineStr"/>
       <c r="H264" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I264" s="4" t="inlineStr">
@@ -12498,7 +12498,7 @@
       <c r="G265" s="4" t="inlineStr"/>
       <c r="H265" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I265" s="4" t="inlineStr">
@@ -12541,7 +12541,7 @@
       <c r="G266" s="4" t="inlineStr"/>
       <c r="H266" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I266" s="4" t="inlineStr">
@@ -12584,7 +12584,7 @@
       <c r="G267" s="4" t="inlineStr"/>
       <c r="H267" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I267" s="4" t="inlineStr">
@@ -12627,7 +12627,7 @@
       <c r="G268" s="4" t="inlineStr"/>
       <c r="H268" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I268" s="4" t="inlineStr">
@@ -12670,7 +12670,7 @@
       <c r="G269" s="4" t="inlineStr"/>
       <c r="H269" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I269" s="4" t="inlineStr">
@@ -12713,7 +12713,7 @@
       <c r="G270" s="4" t="inlineStr"/>
       <c r="H270" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I270" s="4" t="inlineStr">
@@ -12756,7 +12756,7 @@
       <c r="G271" s="4" t="inlineStr"/>
       <c r="H271" s="4" t="inlineStr">
         <is>
-          <t>0/27</t>
+          <t>0/28</t>
         </is>
       </c>
       <c r="I271" s="4" t="inlineStr">
